--- a/Data_frame/balancos_definitivos/EEEL3.xlsx
+++ b/Data_frame/balancos_definitivos/EEEL3.xlsx
@@ -897,10 +897,10 @@
         <v>4456187.904</v>
       </c>
       <c r="AZ2" t="n">
-        <v>275921.984</v>
+        <v>4440126.976</v>
       </c>
       <c r="BA2" t="n">
-        <v>276335.008</v>
+        <v>4586783.744</v>
       </c>
       <c r="BB2" t="n">
         <v>4694412.8</v>
@@ -1084,10 +1084,10 @@
         <v>1514067.968</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1482</v>
+        <v>1530573.056</v>
       </c>
       <c r="BA3" t="n">
-        <v>1481</v>
+        <v>1978653.952</v>
       </c>
       <c r="BB3" t="n">
         <v>1978955.008</v>
@@ -1271,10 +1271,10 @@
         <v>499231.008</v>
       </c>
       <c r="AZ4" t="n">
-        <v>467</v>
+        <v>478404.992</v>
       </c>
       <c r="BA4" t="n">
-        <v>765</v>
+        <v>1209</v>
       </c>
       <c r="BB4" t="n">
         <v>2927</v>
@@ -1458,10 +1458,10 @@
         <v>115635</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>110763</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>854078.0159999999</v>
       </c>
       <c r="BB5" t="n">
         <v>813193.024</v>
@@ -1645,10 +1645,10 @@
         <v>798080</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>833198.976</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>1011971.008</v>
       </c>
       <c r="BB6" t="n">
         <v>998985.024</v>
@@ -1832,10 +1832,10 @@
         <v>12600</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>18286</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>32632</v>
       </c>
       <c r="BB7" t="n">
         <v>68934</v>
@@ -2206,10 +2206,10 @@
         <v>19638</v>
       </c>
       <c r="AZ9" t="n">
-        <v>286</v>
+        <v>21085</v>
       </c>
       <c r="BA9" t="n">
-        <v>66</v>
+        <v>20576</v>
       </c>
       <c r="BB9" t="n">
         <v>32701</v>
@@ -2393,10 +2393,10 @@
         <v>2008</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>4023</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>1913</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>66876</v>
       </c>
       <c r="AZ11" t="n">
-        <v>729</v>
+        <v>64812</v>
       </c>
       <c r="BA11" t="n">
-        <v>650</v>
+        <v>56275</v>
       </c>
       <c r="BB11" t="n">
         <v>62215</v>
@@ -2767,10 +2767,10 @@
         <v>2643621.888</v>
       </c>
       <c r="AZ12" t="n">
-        <v>18818</v>
+        <v>2597945.088</v>
       </c>
       <c r="BA12" t="n">
-        <v>18437</v>
+        <v>2481491.968</v>
       </c>
       <c r="BB12" t="n">
         <v>2549668.096</v>
@@ -2954,10 +2954,10 @@
         <v>7</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB13" t="n">
         <v>7</v>
@@ -3515,10 +3515,10 @@
         <v>2958</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>2958</v>
       </c>
       <c r="BA16" t="n">
-        <v>0</v>
+        <v>1307</v>
       </c>
       <c r="BB16" t="n">
         <v>1307</v>
@@ -4076,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BB19" t="n">
         <v>0</v>
@@ -4450,10 +4450,10 @@
         <v>224764.992</v>
       </c>
       <c r="AZ21" t="n">
-        <v>16680</v>
+        <v>205490</v>
       </c>
       <c r="BA21" t="n">
-        <v>16614</v>
+        <v>0</v>
       </c>
       <c r="BB21" t="n">
         <v>0</v>
@@ -4637,10 +4637,10 @@
         <v>185903.008</v>
       </c>
       <c r="AZ22" t="n">
-        <v>255023.008</v>
+        <v>195244.992</v>
       </c>
       <c r="BA22" t="n">
-        <v>255819.008</v>
+        <v>16050</v>
       </c>
       <c r="BB22" t="n">
         <v>16613</v>
@@ -4824,10 +4824,10 @@
         <v>89801</v>
       </c>
       <c r="AZ23" t="n">
-        <v>440</v>
+        <v>95427</v>
       </c>
       <c r="BA23" t="n">
-        <v>439</v>
+        <v>91584</v>
       </c>
       <c r="BB23" t="n">
         <v>132125</v>
@@ -5011,10 +5011,10 @@
         <v>22794</v>
       </c>
       <c r="AZ24" t="n">
-        <v>159</v>
+        <v>20937</v>
       </c>
       <c r="BA24" t="n">
-        <v>159</v>
+        <v>19004</v>
       </c>
       <c r="BB24" t="n">
         <v>17051</v>
@@ -5385,10 +5385,10 @@
         <v>4456187.904</v>
       </c>
       <c r="AZ26" t="n">
-        <v>275921.984</v>
+        <v>4440126.976</v>
       </c>
       <c r="BA26" t="n">
-        <v>276335.008</v>
+        <v>4586783.744</v>
       </c>
       <c r="BB26" t="n">
         <v>4694412.8</v>
@@ -5572,10 +5572,10 @@
         <v>465329.984</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1198</v>
+        <v>361155.008</v>
       </c>
       <c r="BA27" t="n">
-        <v>499</v>
+        <v>1012030.016</v>
       </c>
       <c r="BB27" t="n">
         <v>902115.008</v>
@@ -5759,10 +5759,10 @@
         <v>30202</v>
       </c>
       <c r="AZ28" t="n">
-        <v>915</v>
+        <v>57713</v>
       </c>
       <c r="BA28" t="n">
-        <v>230</v>
+        <v>50812</v>
       </c>
       <c r="BB28" t="n">
         <v>32868</v>
@@ -5946,10 +5946,10 @@
         <v>38173</v>
       </c>
       <c r="AZ29" t="n">
-        <v>65</v>
+        <v>34244</v>
       </c>
       <c r="BA29" t="n">
-        <v>57</v>
+        <v>32904</v>
       </c>
       <c r="BB29" t="n">
         <v>78492</v>
@@ -6133,10 +6133,10 @@
         <v>68199</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0</v>
+        <v>36433</v>
       </c>
       <c r="BA30" t="n">
-        <v>0</v>
+        <v>55518</v>
       </c>
       <c r="BB30" t="n">
         <v>45967</v>
@@ -6320,10 +6320,10 @@
         <v>53392</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0</v>
+        <v>54557</v>
       </c>
       <c r="BA31" t="n">
-        <v>0</v>
+        <v>659761.024</v>
       </c>
       <c r="BB31" t="n">
         <v>550185.024</v>
@@ -6694,10 +6694,10 @@
         <v>0</v>
       </c>
       <c r="AZ33" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BA33" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BB33" t="n">
         <v>0</v>
@@ -6881,10 +6881,10 @@
         <v>158172.992</v>
       </c>
       <c r="AZ34" t="n">
-        <v>117</v>
+        <v>61666</v>
       </c>
       <c r="BA34" t="n">
-        <v>118</v>
+        <v>83060</v>
       </c>
       <c r="BB34" t="n">
         <v>85435</v>
@@ -7068,10 +7068,10 @@
         <v>117191</v>
       </c>
       <c r="AZ35" t="n">
-        <v>77</v>
+        <v>116542</v>
       </c>
       <c r="BA35" t="n">
-        <v>70</v>
+        <v>129975</v>
       </c>
       <c r="BB35" t="n">
         <v>109168</v>
@@ -7442,10 +7442,10 @@
         <v>2144295.936</v>
       </c>
       <c r="AZ37" t="n">
-        <v>131355</v>
+        <v>2157323.008</v>
       </c>
       <c r="BA37" t="n">
-        <v>134360</v>
+        <v>1545632</v>
       </c>
       <c r="BB37" t="n">
         <v>1608871.936</v>
@@ -7629,10 +7629,10 @@
         <v>588929.024</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0</v>
+        <v>627041.9840000001</v>
       </c>
       <c r="BA38" t="n">
-        <v>0</v>
+        <v>25008</v>
       </c>
       <c r="BB38" t="n">
         <v>22381</v>
@@ -7816,10 +7816,10 @@
         <v>0</v>
       </c>
       <c r="AZ39" t="n">
-        <v>74295</v>
+        <v>0</v>
       </c>
       <c r="BA39" t="n">
-        <v>77227</v>
+        <v>0</v>
       </c>
       <c r="BB39" t="n">
         <v>0</v>
@@ -8003,10 +8003,10 @@
         <v>68417</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0</v>
+        <v>65558</v>
       </c>
       <c r="BA40" t="n">
-        <v>0</v>
+        <v>341155.008</v>
       </c>
       <c r="BB40" t="n">
         <v>334539.008</v>
@@ -8190,10 +8190,10 @@
         <v>199388.992</v>
       </c>
       <c r="AZ41" t="n">
-        <v>56284</v>
+        <v>148716</v>
       </c>
       <c r="BA41" t="n">
-        <v>56357</v>
+        <v>284063.008</v>
       </c>
       <c r="BB41" t="n">
         <v>332828</v>
@@ -8564,10 +8564,10 @@
         <v>1287560.96</v>
       </c>
       <c r="AZ43" t="n">
-        <v>776</v>
+        <v>1316007.04</v>
       </c>
       <c r="BA43" t="n">
-        <v>776</v>
+        <v>895406.0159999999</v>
       </c>
       <c r="BB43" t="n">
         <v>919123.968</v>
@@ -9125,10 +9125,10 @@
         <v>16517</v>
       </c>
       <c r="AZ46" t="n">
-        <v>0</v>
+        <v>15155</v>
       </c>
       <c r="BA46" t="n">
-        <v>0</v>
+        <v>6868</v>
       </c>
       <c r="BB46" t="n">
         <v>6109</v>
@@ -9312,10 +9312,10 @@
         <v>1830045.048</v>
       </c>
       <c r="AZ47" t="n">
-        <v>143368.992</v>
+        <v>1906494.024</v>
       </c>
       <c r="BA47" t="n">
-        <v>141476</v>
+        <v>2022254.048</v>
       </c>
       <c r="BB47" t="n">
         <v>2177317.048</v>
@@ -9499,10 +9499,10 @@
         <v>981342.976</v>
       </c>
       <c r="AZ48" t="n">
-        <v>78567</v>
+        <v>981342.976</v>
       </c>
       <c r="BA48" t="n">
-        <v>78567</v>
+        <v>981342.976</v>
       </c>
       <c r="BB48" t="n">
         <v>981342.976</v>
@@ -9686,10 +9686,10 @@
         <v>0</v>
       </c>
       <c r="AZ49" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BA49" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BB49" t="n">
         <v>0</v>
@@ -10060,10 +10060,10 @@
         <v>1894983.936</v>
       </c>
       <c r="AZ51" t="n">
-        <v>14</v>
+        <v>1977380.992</v>
       </c>
       <c r="BA51" t="n">
-        <v>0</v>
+        <v>1642631.936</v>
       </c>
       <c r="BB51" t="n">
         <v>1642632.96</v>
@@ -10247,10 +10247,10 @@
         <v>0</v>
       </c>
       <c r="AZ52" t="n">
-        <v>-22751</v>
+        <v>0</v>
       </c>
       <c r="BA52" t="n">
-        <v>-16574</v>
+        <v>0</v>
       </c>
       <c r="BB52" t="n">
         <v>156450</v>
@@ -10434,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="AZ53" t="n">
-        <v>61699</v>
+        <v>0</v>
       </c>
       <c r="BA53" t="n">
-        <v>62843</v>
+        <v>0</v>
       </c>
       <c r="BB53" t="n">
         <v>0</v>
@@ -10621,10 +10621,10 @@
         <v>0</v>
       </c>
       <c r="AZ54" t="n">
-        <v>25827</v>
+        <v>0</v>
       </c>
       <c r="BA54" t="n">
-        <v>16627</v>
+        <v>0</v>
       </c>
       <c r="BB54" t="n">
         <v>0</v>
@@ -10808,10 +10808,10 @@
         <v>-1046281.984</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0</v>
+        <v>-1052230.016</v>
       </c>
       <c r="BA55" t="n">
-        <v>0</v>
+        <v>-601721.024</v>
       </c>
       <c r="BB55" t="n">
         <v>-603108.992</v>
@@ -11340,10 +11340,10 @@
         <v>307544.992</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0</v>
+        <v>182293.952</v>
       </c>
       <c r="BA59" t="n">
-        <v>0</v>
+        <v>283342.016</v>
       </c>
       <c r="BB59" t="n">
         <v>384559.008</v>
@@ -11527,10 +11527,10 @@
         <v>-126673</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0</v>
+        <v>-83529.992</v>
       </c>
       <c r="BA60" t="n">
-        <v>0</v>
+        <v>-136631.008</v>
       </c>
       <c r="BB60" t="n">
         <v>-83702</v>
@@ -11714,10 +11714,10 @@
         <v>180872</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0</v>
+        <v>98764.03200000001</v>
       </c>
       <c r="BA61" t="n">
-        <v>0</v>
+        <v>149710</v>
       </c>
       <c r="BB61" t="n">
         <v>300192.992</v>
@@ -11901,10 +11901,10 @@
         <v>-74</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="BA62" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="BB62" t="n">
         <v>-645</v>
@@ -12088,10 +12088,10 @@
         <v>-22973</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-791</v>
+        <v>4652</v>
       </c>
       <c r="BA63" t="n">
-        <v>-309</v>
+        <v>-26445</v>
       </c>
       <c r="BB63" t="n">
         <v>-29198</v>
@@ -12448,10 +12448,10 @@
         <v>139058</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0</v>
+        <v>33654.008</v>
       </c>
       <c r="BA65" t="n">
-        <v>-591</v>
+        <v>2592</v>
       </c>
       <c r="BB65" t="n">
         <v>1310</v>
@@ -12635,10 +12635,10 @@
         <v>-55954</v>
       </c>
       <c r="AZ66" t="n">
-        <v>594</v>
+        <v>-323606.016</v>
       </c>
       <c r="BA66" t="n">
-        <v>1876</v>
+        <v>-1742</v>
       </c>
       <c r="BB66" t="n">
         <v>-6258</v>
@@ -12822,10 +12822,10 @@
         <v>21212</v>
       </c>
       <c r="AZ67" t="n">
-        <v>-5829</v>
+        <v>-15703</v>
       </c>
       <c r="BA67" t="n">
-        <v>7150</v>
+        <v>590</v>
       </c>
       <c r="BB67" t="n">
         <v>1411</v>
@@ -13009,10 +13009,10 @@
         <v>87683</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-2595</v>
+        <v>-5903</v>
       </c>
       <c r="BA68" t="n">
-        <v>-2139</v>
+        <v>110693</v>
       </c>
       <c r="BB68" t="n">
         <v>-18961</v>
@@ -13196,10 +13196,10 @@
         <v>92658</v>
       </c>
       <c r="AZ69" t="n">
-        <v>542</v>
+        <v>22969</v>
       </c>
       <c r="BA69" t="n">
-        <v>-101</v>
+        <v>115204</v>
       </c>
       <c r="BB69" t="n">
         <v>11760</v>
@@ -13383,10 +13383,10 @@
         <v>-4975</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-3137</v>
+        <v>-28871.008</v>
       </c>
       <c r="BA70" t="n">
-        <v>-2038</v>
+        <v>-4511</v>
       </c>
       <c r="BB70" t="n">
         <v>-30721</v>
@@ -13807,10 +13807,10 @@
         <v>349824</v>
       </c>
       <c r="AZ74" t="n">
-        <v>-8621</v>
+        <v>-207620</v>
       </c>
       <c r="BA74" t="n">
-        <v>5987</v>
+        <v>235268</v>
       </c>
       <c r="BB74" t="n">
         <v>248516</v>
@@ -13994,10 +13994,10 @@
         <v>-65168</v>
       </c>
       <c r="AZ75" t="n">
-        <v>-101</v>
+        <v>-33858</v>
       </c>
       <c r="BA75" t="n">
-        <v>-53</v>
+        <v>-30099</v>
       </c>
       <c r="BB75" t="n">
         <v>-33843</v>
@@ -14181,10 +14181,10 @@
         <v>-68559</v>
       </c>
       <c r="AZ76" t="n">
-        <v>0</v>
+        <v>-138568</v>
       </c>
       <c r="BA76" t="n">
-        <v>-73</v>
+        <v>-49479</v>
       </c>
       <c r="BB76" t="n">
         <v>-47146</v>
@@ -14486,10 +14486,10 @@
         <v>1470</v>
       </c>
       <c r="AZ79" t="n">
-        <v>0</v>
+        <v>9648</v>
       </c>
       <c r="BA79" t="n">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="BB79" t="n">
         <v>162</v>
@@ -14673,10 +14673,10 @@
         <v>217567.008</v>
       </c>
       <c r="AZ80" t="n">
-        <v>-8722</v>
+        <v>-333385.024</v>
       </c>
       <c r="BA80" t="n">
-        <v>5861</v>
+        <v>156450</v>
       </c>
       <c r="BB80" t="n">
         <v>167688.992</v>
